--- a/7/3/3/Mercado Local 2009 a 2021 - Trimestral.xlsx
+++ b/7/3/3/Mercado Local 2009 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6042,10 +6045,10 @@
         <v>1950</v>
       </c>
       <c r="G50">
-        <v>1753</v>
+        <v>1542</v>
       </c>
       <c r="H50">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I50">
         <v>-1124</v>
@@ -6117,19 +6120,129 @@
         <v>2</v>
       </c>
       <c r="AF50">
-        <v>3304</v>
+        <v>3093</v>
       </c>
       <c r="AG50">
         <v>-2637</v>
       </c>
       <c r="AH50">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="AI50">
         <v>-5111</v>
       </c>
       <c r="AJ50">
         <v>1057</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>-2</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>9350</v>
+      </c>
+      <c r="G51">
+        <v>570</v>
+      </c>
+      <c r="H51">
+        <v>279</v>
+      </c>
+      <c r="I51">
+        <v>-1594</v>
+      </c>
+      <c r="J51">
+        <v>444</v>
+      </c>
+      <c r="K51">
+        <v>-2462</v>
+      </c>
+      <c r="L51">
+        <v>400</v>
+      </c>
+      <c r="M51">
+        <v>57</v>
+      </c>
+      <c r="N51">
+        <v>-596</v>
+      </c>
+      <c r="O51">
+        <v>64</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>31</v>
+      </c>
+      <c r="R51">
+        <v>-38</v>
+      </c>
+      <c r="S51">
+        <v>36</v>
+      </c>
+      <c r="T51">
+        <v>269</v>
+      </c>
+      <c r="U51">
+        <v>170</v>
+      </c>
+      <c r="V51">
+        <v>-604</v>
+      </c>
+      <c r="W51">
+        <v>210</v>
+      </c>
+      <c r="X51">
+        <v>2515</v>
+      </c>
+      <c r="Y51">
+        <v>367</v>
+      </c>
+      <c r="Z51">
+        <v>-1270</v>
+      </c>
+      <c r="AA51">
+        <v>245</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>-1</v>
+      </c>
+      <c r="AE51">
+        <v>2</v>
+      </c>
+      <c r="AF51">
+        <v>3754</v>
+      </c>
+      <c r="AG51">
+        <v>6888</v>
+      </c>
+      <c r="AH51">
+        <v>911</v>
+      </c>
+      <c r="AI51">
+        <v>-4105</v>
+      </c>
+      <c r="AJ51">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
